--- a/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,356 +512,486 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.63</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>320011</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>诺安中小盘精选混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>85.87</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.78</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>70.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000065</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富焦点驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>006138</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>国联安价值优选股票</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>91.51</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>6.17</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>163822</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000065</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国富焦点驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>25.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>180001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华优势企业混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>69.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>39.96</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>960012</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银收益混合H</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003495</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003496</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006952</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银景元回报混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>27.14</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501038</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华明择多策略定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519714</t>
+          <t>910007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银施罗德消费新驱动股票</t>
+          <t>东方红启元三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7480</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960012</t>
+          <t>007887</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银收益混合H</t>
+          <t>东方红启元三年持有期混合B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>70.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3173</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519710</t>
+          <t>010454</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德策略回报灵活配置混合</t>
+          <t>交银施罗德内需增长一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.82</t>
+          <t>48.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0731</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -996,15 +1176,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.20</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.36</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8999</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009794</t>
+          <t>169107</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平智选一年定期开放股票</t>
+          <t>东方红恒阳五年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>26.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8600</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006138</t>
+          <t>519714</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安价值优选股票</t>
+          <t>交银施罗德消费新驱动股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>15.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6281</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>74.19</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>6.12</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5496</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010454</t>
+          <t>005004</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>交银施罗德内需增长一年持有期混合</t>
+          <t>交银施罗德品质升级混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>78.49</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519678</t>
+          <t>004868</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银河消费驱动混合</t>
+          <t>交银施罗德股息优化混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.59</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>009794</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>太平智选一年定期开放股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>42.62</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005004</t>
+          <t>163822</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>交银施罗德品质升级混合</t>
+          <t>中银主题策略混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>88.27</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>169107</t>
+          <t>002746</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方红恒阳五年定期开放混合</t>
+          <t>汇添富多策略定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>67.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002746</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富多策略定期开放灵活配置混合</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>67.24</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003275</t>
+          <t>519710</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国联安添利增长债券A</t>
+          <t>交银施罗德策略回报灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20.40</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003276</t>
+          <t>519678</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国联安添利增长债券C</t>
+          <t>银河消费驱动混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20.40</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004868</t>
+          <t>006138</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>交银施罗德股息优化混合</t>
+          <t>国联安价值优选股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>163822</t>
+          <t>003275</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中银主题策略混合</t>
+          <t>国联安添利增长债券A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>910007</t>
+          <t>960012</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东方红启元三年持有期混合A</t>
+          <t>中银收益混合H</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007887</t>
+          <t>003276</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东方红启元三年持有期混合B</t>
+          <t>国联安添利增长债券C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1771,4 +1772,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3623</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0143</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7522</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6877</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5541</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5541</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5269</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2284,4 +2285,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5821</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>44.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2531,4 +2532,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2540,7 +2541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,17 +2552,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2571,14 +2592,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.17</v>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5811</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2587,14 +2630,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.04</v>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2603,14 +2668,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.75</v>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2619,13 +2706,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2863,7 +2864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2874,17 +2875,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2894,14 +2915,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.08</v>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2910,14 +2953,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.17</v>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2926,14 +2991,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.04</v>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2942,14 +3029,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.75</v>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>33.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2958,13 +3067,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3148,7 +3149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3159,17 +3160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.73</v>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3195,14 +3238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.08</v>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3211,14 +3276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.17</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3227,14 +3314,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.04</v>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3243,14 +3352,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.75</v>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3259,13 +3390,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.61</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.73</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.08</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>7.04</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>11.75</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.29</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1395,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1717,7 +2056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1963,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2475,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3253,7 +3592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600597-光明乳业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.61</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.73</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.08</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>7.04</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>11.75</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,580 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000065</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富焦点驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1184,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1450,7 +2453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1734,7 +2737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2056,7 +3059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2302,7 +3305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2814,7 +3817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3590,554 +4593,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>163804</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中银收益混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6523</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>960012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中银收益混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6523</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>70.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5140</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>180001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华优势企业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>69.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4479</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>39.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1938</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501038</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华明择多策略定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1816</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>320011</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1754</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>163822</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1410</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000065</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国富焦点驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>25.30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1337</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006952</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中银景元回报混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>27.14</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0992</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003495</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0779</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006138</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国联安价值优选股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003496</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>